--- a/RUDN/Importance/Varible_muatal_in_Melanesia.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Melanesia.xlsx
@@ -19,12 +19,12 @@
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
@@ -37,12 +37,12 @@
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 0-14 (% of total)</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
@@ -154,6 +154,9 @@
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -175,18 +178,15 @@
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
@@ -196,12 +196,12 @@
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -262,63 +262,63 @@
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 08, female, interpolated</t>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Female population 75-79</t>
+    <t>Population ages 65 and above, female</t>
   </si>
   <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
     <t>Male population 70-74</t>
   </si>
   <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
+    <t>Male population 75-79</t>
   </si>
   <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
@@ -406,6 +406,9 @@
     <t>Male population 80+</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
     <t>Number of maternal deaths</t>
   </si>
   <si>
@@ -415,9 +418,6 @@
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
@@ -427,12 +427,12 @@
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
@@ -553,48 +553,48 @@
     <t>Population, male</t>
   </si>
   <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
     <t>Female population 35-39</t>
   </si>
   <si>
@@ -646,16 +646,19 @@
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+    <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
+    <t>Malaria cases reported</t>
   </si>
   <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
@@ -664,18 +667,18 @@
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
@@ -685,27 +688,24 @@
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Prevalence of anemia among pregnant women (%)</t>
   </si>
   <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+    <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
@@ -715,39 +715,39 @@
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Children orphaned by HIV/AIDS</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
@@ -763,48 +763,48 @@
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of GDP)</t>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
   </si>
   <si>
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
@@ -817,10 +817,13 @@
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
-    <t>Improved water source (% of population with access)</t>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (%)</t>
@@ -832,9 +835,6 @@
     <t>People practicing open defecation, urban (% of urban population)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
     <t>Health expenditure, private (% of total health expenditure)</t>
   </si>
   <si>
@@ -874,21 +874,24 @@
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
@@ -901,21 +904,18 @@
     <t>School enrollment, secondary, male (% gross)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
     <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
@@ -925,6 +925,9 @@
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
     <t>School enrollment, primary (% net)</t>
   </si>
   <si>
@@ -937,34 +940,37 @@
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
     <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
     <t>Public spending on education, total (% of GDP)</t>
@@ -973,37 +979,31 @@
     <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
     <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Secondary education, teachers (% female)</t>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+    <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
     <t>School enrollment, secondary (% net)</t>
@@ -1633,7 +1633,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.197766474879068</v>
+        <v>1.201855272260548</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1737,7 +1737,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.155005066363791</v>
+        <v>1.156303767662493</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1745,7 +1745,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.139521064424012</v>
+        <v>1.144282969185917</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1769,7 +1769,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.116961323548353</v>
+        <v>1.121113679631026</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1777,7 +1777,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.114987886338314</v>
+        <v>1.116961323548353</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1793,7 +1793,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.11426468774776</v>
+        <v>1.114987886338314</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1801,7 +1801,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.113825096334807</v>
+        <v>1.11426468774776</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1809,7 +1809,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.11139799969472</v>
+        <v>1.113825096334807</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1817,7 +1817,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.110362204343068</v>
+        <v>1.11139799969472</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1825,7 +1825,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.108962111686775</v>
+        <v>1.110362204343068</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1929,7 +1929,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.043998502193799</v>
+        <v>1.043505891356361</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9189171408605934</v>
+        <v>0.9193779703536813</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2057,7 +2057,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.9022143161284959</v>
+        <v>0.9009615943686782</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.9009615943686782</v>
+        <v>0.9008219595673899</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.9008219595673899</v>
+        <v>0.9002134884375568</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2081,7 +2081,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.9002134884375568</v>
+        <v>0.8997923313023715</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2089,7 +2089,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.8997923313023715</v>
+        <v>0.8993571732713528</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2105,7 +2105,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.8972023113265755</v>
+        <v>0.8959289599006373</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2113,7 +2113,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.8959289599006373</v>
+        <v>0.8943451684694324</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2121,7 +2121,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.8906434728175772</v>
+        <v>0.8905704978250761</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2129,7 +2129,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.8905704978250761</v>
+        <v>0.8890666040882269</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.889218783376583</v>
+        <v>0.8877863299604345</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2145,7 +2145,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.8890666040882269</v>
+        <v>0.8870932505466285</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.8870932505466285</v>
+        <v>0.8863616405194403</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2169,7 +2169,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.8847645103724695</v>
+        <v>0.8846066994486725</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.8846066994486725</v>
+        <v>0.8824637149476133</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2185,7 +2185,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.8824637149476133</v>
+        <v>0.8819073675153268</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2193,7 +2193,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.8810886542089282</v>
+        <v>0.8782436699184635</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.8782436699184635</v>
+        <v>0.8782315113517856</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2441,7 +2441,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.8179075079742111</v>
+        <v>0.819485794568648</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2449,7 +2449,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.816807318972006</v>
+        <v>0.8175590759184621</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2457,7 +2457,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8165203116513522</v>
+        <v>0.816807318972006</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2465,7 +2465,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.8150723218624925</v>
+        <v>0.8165203116513522</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.8113506773352173</v>
+        <v>0.8117475027320427</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2497,7 +2497,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.7959247342138018</v>
+        <v>0.8023786200702092</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2505,7 +2505,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.794379260912301</v>
+        <v>0.7959247342138018</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.783713552974409</v>
+        <v>0.7846064101172661</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2537,7 +2537,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.7828477521086081</v>
+        <v>0.783713552974409</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2833,7 +2833,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.7089780305443891</v>
+        <v>0.7088971256291721</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2841,7 +2841,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.7088971256291721</v>
+        <v>0.7073757312672311</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.7073757312672311</v>
+        <v>0.7060257946699346</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.7060257946699346</v>
+        <v>0.7054101874184264</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2865,7 +2865,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.7054101874184264</v>
+        <v>0.705056055871345</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2873,7 +2873,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.705056055871345</v>
+        <v>0.7029074034708678</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2881,7 +2881,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.7029074034708678</v>
+        <v>0.6956124715283751</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2889,7 +2889,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.6956124715283751</v>
+        <v>0.6940238778935299</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2897,7 +2897,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.6945878089871265</v>
+        <v>0.6933759988057104</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2905,7 +2905,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.6940238778935299</v>
+        <v>0.6894179015298787</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2913,7 +2913,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.6887077929250334</v>
+        <v>0.6805759620403138</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2921,7 +2921,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.6563721660431194</v>
+        <v>0.6590416341924756</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2929,7 +2929,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.6560052605712758</v>
+        <v>0.6556568285155269</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2937,7 +2937,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.6549528368109954</v>
+        <v>0.6551425763040477</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3009,7 +3009,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.6113687963410908</v>
+        <v>0.6109685670023766</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3041,7 +3041,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5875221748152448</v>
+        <v>0.5922840795771496</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3057,7 +3057,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.5786895085786758</v>
+        <v>0.581441523743087</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3073,7 +3073,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.5693844398339318</v>
+        <v>0.5703869363924294</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3081,7 +3081,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.568655677299388</v>
+        <v>0.5682626435556173</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3089,7 +3089,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.5635007387937125</v>
+        <v>0.5622271058708164</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3113,7 +3113,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.547504828326991</v>
+        <v>0.5568188605601525</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3121,7 +3121,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.5431743855943598</v>
+        <v>0.547504828326991</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3129,7 +3129,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.5382125264181041</v>
+        <v>0.5424570997441724</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3137,7 +3137,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.5340878130828581</v>
+        <v>0.5317722065503836</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3145,7 +3145,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.5317722065503836</v>
+        <v>0.5292842636393342</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3153,7 +3153,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.5286065143175263</v>
+        <v>0.5279334069371018</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3161,7 +3161,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.5257329099497416</v>
+        <v>0.5266012640909385</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.5251313395343413</v>
+        <v>0.5254756916778176</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.5229136880639009</v>
+        <v>0.5242849570252941</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.5215154294167399</v>
+        <v>0.5208728717373705</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3193,7 +3193,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.5188553759313769</v>
+        <v>0.5184890755650761</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3209,7 +3209,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.510943894819341</v>
+        <v>0.5128803513506637</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3217,7 +3217,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.510773587178853</v>
+        <v>0.510603758764919</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4953102399247382</v>
+        <v>0.4990239270312828</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3273,7 +3273,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.485792634514276</v>
+        <v>0.4956340351029815</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.4838064550118273</v>
+        <v>0.4842032804086522</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3289,7 +3289,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.477837963847386</v>
+        <v>0.4786435732580721</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3305,7 +3305,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.4659741541975202</v>
+        <v>0.4672058087218576</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3313,7 +3313,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.4659741541975202</v>
+        <v>0.4672058087218576</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3321,7 +3321,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.4572539732516325</v>
+        <v>0.4616674459577883</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3337,7 +3337,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4471629344514718</v>
+        <v>0.4469264571721858</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3345,7 +3345,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4469264571721858</v>
+        <v>0.4459384156562063</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3361,7 +3361,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4302106242834309</v>
+        <v>0.4342994216649114</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4169008773506333</v>
+        <v>0.4209896747321134</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.4138626935245817</v>
+        <v>0.4179514909060622</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.4052630765160319</v>
+        <v>0.4151060116650696</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3401,7 +3401,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.4021500385035792</v>
+        <v>0.4100249812779366</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.4017289724052324</v>
+        <v>0.4099567804041189</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3417,7 +3417,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4016166716365401</v>
+        <v>0.4049391541498379</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3827377395728866</v>
+        <v>0.3848408995914656</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3815285417401921</v>
+        <v>0.3827377395728866</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.3806100799984189</v>
+        <v>0.3815285417401921</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3804274268853103</v>
+        <v>0.3806100799984189</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3655465095921171</v>
+        <v>0.3655749881299943</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.3607855755742144</v>
+        <v>0.3655465095921171</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.357983426649513</v>
+        <v>0.3623968993556683</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.357983426649513</v>
+        <v>0.3623968993556683</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.357983426649513</v>
+        <v>0.3623968993556683</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.357983426649513</v>
+        <v>0.3623968993556683</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3601,7 +3601,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.3114014652245976</v>
+        <v>0.315490262606078</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3617,7 +3617,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2864663689970384</v>
+        <v>0.2915009597156166</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2339166542778319</v>
+        <v>0.238538360467788</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2337642254664938</v>
+        <v>0.2339166542778319</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3705,7 +3705,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2337177994290922</v>
+        <v>0.2337642254664938</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3729,7 +3729,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2280111303042003</v>
+        <v>0.2337177994290922</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3737,7 +3737,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2280078320465049</v>
+        <v>0.2280111303042003</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2271548040907316</v>
+        <v>0.2280078320465049</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3761,7 +3761,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2236526403327908</v>
+        <v>0.2271548040907316</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3809,7 +3809,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1546820125332888</v>
+        <v>0.1587708099147693</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3825,7 +3825,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1480654883818133</v>
+        <v>0.1497949335729509</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3833,7 +3833,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1472799327698437</v>
+        <v>0.1480654883818133</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -3841,7 +3841,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.1380266824109961</v>
+        <v>0.1472799327698437</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3849,7 +3849,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1342462099616213</v>
+        <v>0.1380266824109961</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -3857,7 +3857,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1338938124755262</v>
+        <v>0.1342462099616213</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1317174994486676</v>
+        <v>0.1322551463506587</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1291197835557114</v>
+        <v>0.1320655967295374</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3889,7 +3889,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1281663489691782</v>
+        <v>0.1291197835557114</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1170542856361738</v>
+        <v>0.1179441801077206</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1170542856361738</v>
+        <v>0.1177038901146081</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1124181821850283</v>
+        <v>0.1170542856361738</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1117210214773154</v>
+        <v>0.1170542856361738</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1116434793791621</v>
+        <v>0.1117210214773154</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1010265291902852</v>
+        <v>0.09848559186673866</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.09550293623127981</v>
+        <v>0.09507846923401453</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4001,7 +4001,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.09507846923401453</v>
+        <v>0.08788388861223217</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.04650847648377621</v>
+        <v>0.0505972738652567</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.0157064526258841</v>
+        <v>0.0197952500073646</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4081,7 +4081,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.004570894808900716</v>
+        <v>0.008659692190381207</v>
       </c>
     </row>
     <row r="338" spans="1:2">
